--- a/Main/prices3.xlsx
+++ b/Main/prices3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C710B94B-5619-469F-B727-0410293CF639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6F3449-1132-4B2F-A66C-2B589C086D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="2610" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
